--- a/data/outputs/OR/23.xlsx
+++ b/data/outputs/OR/23.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ57"/>
+  <dimension ref="A1:BR57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1110,6 +1116,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1315,6 +1322,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4620186</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1528,6 +1540,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4916982</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1733,6 +1750,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4607066</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1938,6 +1960,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4949230</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2135,6 +2162,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2320,6 +2348,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2505,6 +2534,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2706,6 +2736,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2923,6 +2954,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3124,6 +3156,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3325,6 +3358,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3534,6 +3568,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3731,6 +3766,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3948,6 +3984,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>32502509</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4141,6 +4182,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4330,6 +4372,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4527,6 +4570,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4724,6 +4768,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4168296</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4933,6 +4982,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4489669</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5150,6 +5204,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4168470</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5363,6 +5422,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5572,6 +5632,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5781,6 +5842,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5978,6 +6040,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>4447010</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6163,6 +6230,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6356,6 +6424,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4489687</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6545,6 +6618,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6742,6 +6816,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>3855333</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6955,6 +7034,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>3950304</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7168,6 +7252,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>3761404</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7369,6 +7458,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7578,6 +7668,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7779,6 +7870,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>3596599</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7972,6 +8068,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8157,6 +8254,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8358,6 +8456,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>3750265</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8559,6 +8662,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8760,6 +8864,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8969,6 +9074,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9166,6 +9272,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>2502285</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9351,6 +9462,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9536,6 +9648,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9721,6 +9834,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9926,6 +10040,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>2661957</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10131,6 +10250,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10344,6 +10464,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>3582272</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10557,6 +10682,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>3434621</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10754,6 +10884,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10963,6 +11094,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>9906898</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11160,6 +11296,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11357,6 +11494,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11554,6 +11692,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11743,6 +11882,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11928,6 +12068,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
